--- a/content/drafts/entitats/Codis_Persona_Relació_Parentiu_Tipus.xlsx
+++ b/content/drafts/entitats/Codis_Persona_Relació_Parentiu_Tipus.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21601"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21629"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\LAA\CTTI\2019 - Dades de referència\Repositori\dSocial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\layatsal\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B5982E6-597F-4FEB-A972-81BA3348C7A1}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B90F3EA-5D90-42BC-BC34-0CD3A5395359}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-23148" yWindow="-1668" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tipus Parentiu" sheetId="1" r:id="rId1"/>
@@ -426,9 +426,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -525,15 +523,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010008DEA6A335D5DB4C80041820F961B988" ma:contentTypeVersion="1" ma:contentTypeDescription="Crea un document nou" ma:contentTypeScope="" ma:versionID="367d9f143660f58e8d16a0b6b83542cc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns1="http://schemas.microsoft.com/sharepoint/v3" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="572ac8b42f3ef587f96d641b4f387de3" ns1:_="">
     <xsd:import namespace="http://schemas.microsoft.com/sharepoint/v3"/>
@@ -665,6 +654,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <PublishingExpirationDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+    <PublishingStartDate xmlns="http://schemas.microsoft.com/sharepoint/v3" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DAC0DC75-98C4-4786-87BE-3FAB7C0EC5D4}">
   <ds:schemaRefs>
@@ -674,22 +672,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CB70562-1517-4985-9F8C-E9375EA113A7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CB384F0A-7597-494E-84F9-C8FED92ED1CF}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -705,4 +687,20 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{0CB70562-1517-4985-9F8C-E9375EA113A7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>